--- a/Corrispondenze.xlsx
+++ b/Corrispondenze.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d451be126981215/Desktop/GitHub/Gadda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="11_AD4D5CB4E552A5DACE1C641830185D485BDEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A96ECFC1-2515-466F-905C-91BA742E99EE}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="11_AD4D5CB4E552A5DACE1C641830185D485BDEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4D3C1A3-AD52-4B32-9829-D7EC2BFA59F3}"/>
   <bookViews>
-    <workbookView xWindow="11064" yWindow="780" windowWidth="11892" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10980" yWindow="132" windowWidth="11892" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
     <t xml:space="preserve">ABRAHAM PIERRE </t>
   </si>
@@ -325,6 +325,327 @@
   </si>
   <si>
     <t>CATTANEO CARLO CdD 571; VM 515, 5r7, 552, 651, 658; SD 861, 971, 1075; SA 874 - Lombardia antica e moderna VM 5r5 - «Il Politecnico» VM 65r</t>
+  </si>
+  <si>
+    <t>CATANEO JULIO [Giulio Cattaneo] PLF</t>
+  </si>
+  <si>
+    <t>CATULLO GAIO VALERIO CdU 278; L'A 326; QPL 307, 309; M SII, 1217; Ral 1029; Mdl 59, 176; VM 527-28, 558, 616, 627; SD 870, 898-902, ro24; PLF 21, 28; EP 314; GASP 413; DT 72; MM 840 - Carmina [III, 1] G.ASP 413; MM 696; [12] SD I222; V, 7, CdU 278; [XI, 1, II-I2] M uq; XXVI, [r-2, 4-5] L'A 404; [XXVII, 4] MdI 163; [XXIX] MdI 176; XKXI, (2-3] Mdl 59; [3] DT 72; [XXXV, 3-4] M 5rr; LVII, [4] SD 900; LXVIII, [22] SD 899; CI, [4] SD 899</t>
+  </si>
+  <si>
+    <t>CAVALLOTTI FELICE L'A 302, 545; M 497,584; AG 905; SD 732; RI 553</t>
+  </si>
+  <si>
+    <t>CECHOV ANTON PAVL0VIC SD 1051-53, 1055-56 - Il gabbiano SD 1055 - Il giardino dei ciliegi SD ro55 - Ivanov SD 1055 - Le tre sorelle SD 1051-53, 1055 - Liescij SD ro55 - ZioVanja SD 1055</t>
+  </si>
+  <si>
+    <t>CELLINI BENVENUTO, messer Benvenuto L'A 472; QPL 307; A 241, 251, 253; VM 489; SD 888, 938, 979; RI 479 - Vita RI 479</t>
+  </si>
+  <si>
+    <t>CERVANTES SAAVEDRA MIGUEL DE il monco di Lepanto CdD 650; RD 1005; SD 750, 885, 906, 1022, 1030, 1221; EP 335 Don Quifote CdD 764; AG 829; SD 685, 751; EP 335; RI 597; "Don Chisciotte MM 744,767,769</t>
+  </si>
+  <si>
+    <t>CHATEAUBRIAND FRANçOIS-RENÉ DE CdU 16.5; SD IIf6, 1!19, 1138</t>
+  </si>
+  <si>
+    <t>CICERONE MARCO TULLIO, Cicero QP 252; QPL 307, 419; AG 669-7r, 677, 679, 68r, 683, 686, 690-92; Mdl 70, 175; VM 483; SD 680, 114I II9I; EP 317, 1060; RI 592; 702, 7r3, 884; AS rr63-64, r166 De Amicitia AG 672 De Divinatione AG 672 - De Fato AG 672 - De Gloria AG 672 - De Officiis AG 665, 669, 672, 68r, 683, 689, 691; SD 680; EP ro6o; Rl 592; I, 27, 96 MM 884; III, r6 QPL4r9; r-42 AG 673 - De Senectute AG 672,675 - In Gaium Verrem Oratio Secunda, I, 78 SD u55; [IV, r] SD rr56; [IV, 3, 6] EP 1060 - Pro Marco Rufo SD 9or</t>
+  </si>
+  <si>
+    <t>CIRESE ALBERTO MARIO VM 5 l I</t>
+  </si>
+  <si>
+    <t>COLERIDGE SAMUEL TAYLOR L'A 546</t>
+  </si>
+  <si>
+    <t>COLLODI [Carlo Lorenzini] SD 939; EP 1033 - [Le avventure di Pinocchio] '' Geppetto SD n6o; Pinocchio SD II6o; EP335 - [Minuzzolo]'' Minuzzolo EP 267</t>
+  </si>
+  <si>
+    <t>COLOMBO CRISTOFORO, il grande geno- '1!ese L'A 314; RaI 1101-02; A 259; VM 428; SD 835, 977, 989-92, 996, 1045, 1047, 1072; PLF 30, 955; EP 277, 279-80; GASP 412; RI 473</t>
+  </si>
+  <si>
+    <t>COLOMBO GIUSEPPE L'A 36i, 376, 409; CdD 729</t>
+  </si>
+  <si>
+    <t>CONTINI GIANFRANCO L'A 420; CdD 759; VM 490, 495; SA 875 CONTUGA DT 169 «Convegno (Il)» VM 600; SD 883</t>
+  </si>
+  <si>
+    <t>CORNEILLE PIERRE CdD 682; AG 756; VM 563, 578; SD 1012; LdF 210; RI 597; MM 784 - [Cinna] ,·, Augusto VM 563 - Horace RI 613;·'' Carmela [ = Camille] RI 613; Borace, Orazio VM 563,585 - Le Cid VM 563 - Polyeucte VM 563; '' Pauline VM 585; RI 613; Poliuto VM 563</t>
+  </si>
+  <si>
+    <t>CORNELIO NEPOTE M 550; RaI rr20; SD1159</t>
+  </si>
+  <si>
+    <t>COULON MARCEL VM 571,574 - Au coeur de Verlaine et de Rimbaud VM571</t>
+  </si>
+  <si>
+    <t>CROCE BENEDETTO CdU 268; L'A 451; VM 573, 597; SD 692, 755, 947, II25, II73 - Ariosto Shakespeare e Corneille VM 573 - Storie e leggende napolitane SD 755</t>
+  </si>
+  <si>
+    <t>CRONIN ARCHIBALD JOSEPH EP 335</t>
+  </si>
+  <si>
+    <t>D'ANNUNZIO GABRIELE, don Gabriele, divino Gabriele, Gabrielnuncius, il Poeta, il divo di Pescara CdU 14zL'A 305, 473; M 52r, 525,584; AG 606, 860, 878, 883; A 244-45; VIC 365-66; VM 492, 505, 640, 643; SD 731, 769, 785, 826-31, 909, 968, 971, 989, 1019-20, 1061, ro84, 1120, 1144, 1175, II85, 1224; EP 255, 257, 265, 328; GGP 464, 588, 621, 625, 672, 683, 688, 1128; RI 400, 462, 48r; MM 697, 702, r318; Te 11011 1119 Il fuoco SD 709,938, 1175; '' Daniele Glauro SD 1175; Donatella Arvale SD 1175; Foscarina SD 938; Stelio Effrena SD 938-40, 1175 - Il piacere SD 827; RI 462 - La Gloria AG 883 - La nave SD 1020 - Laudi SD 831, ro6r; GGP 688, II28; t&gt; [Alle Pleiadi, 1-3, 31-36] MM 697; t&gt; Maja, Laus Vitae A 244; GGP 588, 666, 683; RI 564; MM 697; [VIII, ro6-09; IX, 1-2; 34-35; 43; 51; 63; 150; 154; 162-63; 283- 85] A 244-45; [XIX, 390-91] EP 255; t&gt; Elettra MM 697, 1318; [La notte di Caprera, XVIII, 1-4] SD 1138; Le città del silenzio SD 1224; Te II01; [Perugia, I, r; II, vv. 12-14] SD II85; [VIII, 7-8] Te r II9; t&gt; Alcione CdU 184; MdI 194; [L'Alpe sublime, 51-52] Mdl 180 - Più che l'amore AG 883; SD 827 - Poema paradisiaco SD 1061 - Trionfo della morte RI 400</t>
+  </si>
+  <si>
+    <t>DA PONTE LORENZO M 580</t>
+  </si>
+  <si>
+    <t>DARWIN CHARLES MdF 74, 93; L'A 559; Mdl 77; VM 456-57, 468; SD 699; EP 298-99, 335; GASP 387; MM 838; MdS 913</t>
+  </si>
+  <si>
+    <t>[DAUDET ALPHONSE] - Tartarin surles Alpes GGP 684</t>
+  </si>
+  <si>
+    <t>D'AZEGLIO MASSIMO TAPARELLI M 484; AG 611; SD 1039; MM 695 123- Bravi in agguato nel bosco lVIM 695 - La disfida di Barletta MM 695; ;&gt; Fanfulla da Lodi, Fieramosca Ì\llM 695</t>
+  </si>
+  <si>
+    <t>LA BRUYÈRE JEAN LdF 2l O</t>
+  </si>
+  <si>
+    <t>MARCILLAC, duca di La Rochefoucauld [François VI] LdF 209</t>
+  </si>
+  <si>
+    <t>DELLA CASA GIOVANNI SD 887</t>
+  </si>
+  <si>
+    <t>DELL'ARCO MARIO VM 5 II; Te 1107</t>
+  </si>
+  <si>
+    <t>DE PISIS FILIPPO A 209; VlC 285; SD 968; SA 875; AS 1151, 1153</t>
+  </si>
+  <si>
+    <t>DE ROBERTO FEDERICO SD 755 I Viceré SD 755</t>
+  </si>
+  <si>
+    <t>CARTESIO, René Descartes MdF 87; CdD 687; QPL 307; VM 483, 650, 652; SD 719, 821, 831, 1012, 1161; MM 732, 1315, 1340, 1365 - VorticiVM 650</t>
+  </si>
+  <si>
+    <t>DEVOTO GIACOMO VM 490, 492; SD 815-16, 818-20, 823,873, 945-48 - Introduzione alla grammatica SD 945 - Gli antichi Italici SD 45 Storia della lingua di Roma SD 873 - Tabulae Iguvinae SD 945</t>
+  </si>
+  <si>
+    <t>DICKENS CHARLES CdD 752; VM 596; SD 932, lII4, II78;RI 396, 483-84 - Circolo Pickwick RI 484</t>
+  </si>
+  <si>
+    <t>DONISELLI CASIMIRO VM 652</t>
+  </si>
+  <si>
+    <t>DOSSI. CARLO, Alberto Carlo PisaniDossi CdD 578; SD 970-73</t>
+  </si>
+  <si>
+    <t>DOSTOEVSKIJ FEDOR M!CHAILOVIC CdU I7I, 260-61; L'A 559; VM 453, 463, 596, 598, 614, 655; SD 721, 922, 931-32, 11r3; RI 537, 573, 1281, 1286; MM 825 - [1 demoni] ;, Maria Timofeievna Stavròghina CdU 260 . - I fratelli Karamazov CdU 268; MdI 123; VM 463,655; SD 836, 1206; ;, Fedor Pavlovic, capitano Karamazov VM 463; EP 1035; Grigorij VM 463; Smerdjakov VM 463 - [L'idiota]'' Nastasja Filippovna RI 537,548 dottore angelico -+ SANTI, Tommaso d'Aquino dottore serafico --+ SANTI, Francesco d'Assisi</t>
+  </si>
+  <si>
+    <t>D'OVIDIO FRANCESCO SD 725</t>
+  </si>
+  <si>
+    <t>DUCATI PERICLE SD 873</t>
+  </si>
+  <si>
+    <t>ECKERMANN JOHANN PETER GGP 828 - Gesprdche mit Goethe GGP 828</t>
+  </si>
+  <si>
+    <t>EINSTEIN ALBERTO SD 947, 978; RI 551</t>
+  </si>
+  <si>
+    <t>ELIOT THOMAS STEARNS SD 967, 1061</t>
+  </si>
+  <si>
+    <t>ERACLITO CdU 115; SD 910</t>
+  </si>
+  <si>
+    <t>ESCHILO CdU 182, 189; L'A 341; SD 967, 1023; MM 682 - Orestiade SD 967; l&gt; AQ,2m,,nn,one SD 967; MM 789; l&gt; SD 967; l&gt; Eumenidi SD 967</t>
+  </si>
+  <si>
+    <t>ESIODO SD 1004, l 105</t>
+  </si>
+  <si>
+    <t>[ESOPO], Issopo PLF 66</t>
+  </si>
+  <si>
+    <t>EURIPIDE CdD 715</t>
+  </si>
+  <si>
+    <t>FALQUI ENRICO SD 827-28) 830) 1079- 81</t>
+  </si>
+  <si>
+    <t>FEDRO PLF 13; EP 279 - [Favole, I, r, v. ro] EP 294; [I, 7, vv. 1-2] EP 279, 356; [I, 3, vv. s-6] EP 351</t>
+  </si>
+  <si>
+    <t>FÉNELON [François de Salignac de la Mothe] VM 650</t>
+  </si>
+  <si>
+    <t>FERRAR! GIUSEPPE SD 861</t>
+  </si>
+  <si>
+    <t>FERRARIS GALILEO L'A 334; M 5r5; SD 980-84; MM 782,785</t>
+  </si>
+  <si>
+    <t>FERRATA GIANSIRO PLF 65-67, 7r</t>
+  </si>
+  <si>
+    <t>FICHTE JOHANN GOTTLIEB SD 680, 905-07, 909; P 880, 882; RI 590, 592, 1275; MM 657, 667, 741, 769, 834, 1340 - Reden an die deutsche Nation, Discorsi alla nazione tedesca SD 680, 905; RI 592</t>
+  </si>
+  <si>
+    <t>FICINO MARSILIO VlC 407; SD 908; EP237;Rl592 - De cribratione Alchoran SD 908</t>
+  </si>
+  <si>
+    <t>FIORENTINO FRANCESCO SD 692 - Compendio di Storia della Filosofia SD 692 Fioretti di San Francesco MdI 141; GGP 691-92</t>
+  </si>
+  <si>
+    <t>FLAUBERT GUSTAVE V]l/1 453, 462, 606; SD 932,986, 1178</t>
+  </si>
+  <si>
+    <t>FOCH FERDINAND GGP 845, 847</t>
+  </si>
+  <si>
+    <t>FOLENGO TEOFILO, Medin Cocai VM498-99, 535; SD III], II23 - Baldus, XXII, 122-23, 129-31 VM498</t>
+  </si>
+  <si>
+    <t>FOSCOLO NICCOLÒ UGO, Nicoletta, Basetta, Basettone-Moralone, Bel-collo, un poeta, Poeta Iperbolico, Zacinzio MdF 94; CdU 207; L'A 456; QP 220, 271; AG 917-19; SD 699, 861, 875, 899, 963-65, 971, 989, 1083, IIIJ, II44, lI46-50, 1164, II7_5, rr94, 1196; PLF 32;,EP 273; GASP 386-96, 398-99, 405-06, 408-09, 4rr-r2, 414-15, 418-20, 422-24, 426, 428, 1091-93, 1096, 1098-99; RI 397 - [A Bonaparte, lettera] GASP 39.5 - A Bonaparte liberatore [ode] GASP 395; [27-29] GASP 396; [r46-.56J GASP 398-99 - Alla amica 1-isanata SD TT,18- GASP 42r, 427; (.52-54] SD [8.5] GASP 420; [87] GASP 1099 - A Luigia Pa!ltivicini caduta da cavallo GASP 418, 42,, 424,427; [,. n] GASP r5-r6; [13] GASP 413; [23-30, 57-64] GASP 424-26; [65- 66] GASP 1097 - Commento alla Chioma di Betenice SD 901 - Dei Sepoic,i- Ivl 582; SD rr48; GASP 424; (3-5] AG 917; []5] GASP 423; [125-26] SD 1223; [134- 36] GASP 406-07; [145] GASP 423 - Le Grazie SD 964, 1148; GASP 408, 1093; [Inno II] SD 965 - Ricciarda GASP 388 - [Sonetti, VII, r] GASP 392; [IX, 1-.5] GASP 408; [X, 6] SD 899 - Ultime lettere di Jacopo Ortis CdU 217; SD 752, r148; GASP 1093 [Familiari] A_ndreaJ ·GP.1..SP- 327) 1091 - Costantino Angelo (Giulio) GASP 1092 - Floriana AG 918-19 - (fratelli) GASP 388 - Giovanni Dionigi (Giogi) GASP 1092 - Rubina (Florida) GASP ro92</t>
+  </si>
+  <si>
+    <t>FRANCE ANATOLE, monsieur Thibault INDICE DEI NOMI [François Anatole Thibault) SD 708, 724,731,830,926,932 «France Galante» LdF 15r</t>
+  </si>
+  <si>
+    <t>Francesco d'Assisi, Assisiense, dottore serafico, gran Povero, povero, Poverello d'Assisi, Santo CdU 136; QP 18, 76; QPL 284, 350, 439; M 492, 505; AG 630; Mdl 139-42; SD 854, 910; PLF r7, 60; GGP r124; Rl 481, 553; MM 745; MdS 909; PdO 939; Te 1100, rro2, 1II9; AS 1148;</t>
+  </si>
+  <si>
+    <t>FRANCHI RAFFAELLO SA 874-75</t>
+  </si>
+  <si>
+    <t>FRASSINETI AUGUSTO SD 966</t>
+  </si>
+  <si>
+    <t>FREUD SIGMUND, Sigmondo, Copernico· della psicologia L'A 334, 559; AG 803; Ral 1029; VM 457-fo, 466, 468, 471, 501, 596-98, 601, 6?2;SD 978, 1058; EP 348, 1046 • - Totem e Tabù EP 1046</t>
+  </si>
+  <si>
+    <t>FRIGERIO FEDERICO A 220, 223; VlC 292,295</t>
+  </si>
+  <si>
+    <t>GADDA CARLO EMILIO, Gaddus, m'sieur Gadà, Gaddone, Feo Averrois, Alz' Oca De Madrigal, Duca di Sant'Aquila, Eraclito di Via S. Simpliciano, maggiore O'Comiel, Zoluzzo di Lombardia, CdU I r5, II8, 158-60; L'A 413; CdD 578, 760; QP r86; RD 953, 969-70, 972-75, 1003-05, 1007; RaI 1125-26) 1321) 1323; MdI 45,64, rr9-21; A 243; VlC 279; VM 435, 502, 6r4; SD 725, 749, 816, 950; PLF 67, 78; EP 268- 70, 27r, 273, 281-82, 287-89, 292, 295,304, 306-07, 309,312, 314-15, 323-25, 328, 332, 335, 337, 34o, 343, 345, 347, 351, 354-56, 358-60, 370, 373-74, ro48; GGP 449, 452- 53, 456, 510-rr, 518, 540, 573, 579,587,596,650,660,668,734, 764, 777, 853, rr24, 1126-27; SA 87r, 873; RI 437; MM 850, 1314-15 - Apologia Manzoniana SA 874 - Dal memoria!,; di un volontario di guerra GGP 800 - Eros e Logos, Eros e Priapo QPL 364; SD 950 - Favole per il Tesoretto, 35 Favole, Favole PLF 67, 72; P 896 • • - Il castello di Udine Mdl 64; VM 502; SD 8r2-r3, 815, 823, 988; SA 876; La festa dell'uva a Marino SD 988; Polemiche e pace nel direttissimo SD988 - 1 sog11i e la folgore VM 507 - [I viaggi la morte] I viaggi la mode MM 767, 1319, 1344, 1347 La cognizione del dolore CdD 759, 761-62; EP 309 L'Adalgisa VM 502,507; SD950 - La Madonna dei filosofi Ral 1336; VNI 50?; SD 988; SA 874; Teatro SA 874; Manovre di artiglieria da campagna SD 823, 988; MM 797; Studi impafetti SA 874; Cinema SA 874; La Madonna dei filosofi SA 874 - Meditazione Milanese, Meditazione (Cogitatio) prima MM 621, 803, 850, r3r4-r5, 1352-53, 1362 - Notte di luna RaI r336 - Novella 2a RI 1296-97; MM r314 - Novelle dal ducato in fiamme SD 1120; SA 876; San Giorgio in casa Brocchi VM 6or; SA874; L'incendio di Via Keplero SD 950-51; Prima divisione nella notte SA 876 - [Poesie, Poi che sfuggendo ai tepidi tramonti, r-14] SD rr20 - Quer pasticciaccio brutto de via Merulana VlC 364; Vlv1 502, 506, 508, 5ro; SA875-76 - Racconto italiano, Romanzo sul lavoro italiano A 252; MM1332 - Un fulmine sul 220 Mdl roo</t>
+  </si>
+  <si>
+    <t>GADDA-CONTI PIERO MdF 46; SD 749, 752, 754, 986-87; GGP 866; RI 465 A gonfie vele SD 749 - Gagliarda SD 749-51, 755 Mozzo SD 749</t>
+  </si>
+  <si>
+    <t>GALIANI FERDINANDO VM 651 Sulla moneta VM 65 r Dialogues sur le Commerce des blés VM 65 r</t>
+  </si>
+  <si>
+    <t>GARCIA LORCA FEDERICO SD 1030, 1073</t>
+  </si>
+  <si>
+    <t>GARGIULO ALFREDO SD 765</t>
+  </si>
+  <si>
+    <t>GATTO ALFONSO PLF 69</t>
+  </si>
+  <si>
+    <t>GAUGUIN PAUL SD 1061</t>
+  </si>
+  <si>
+    <t>GAUTIER THÉOPHILE SD 723</t>
+  </si>
+  <si>
+    <t>GENET JEAN VM 612, 614-15, 617-21 - ]ournal du voleurVNL 612, 615-16</t>
+  </si>
+  <si>
+    <t>GIDE AI'TDRÉ AG 802; VI½. 616-17; SD 709,721 _ Antholog,e VM 617 _ Billets à Angèle SD 709</t>
+  </si>
+  <si>
+    <t>GIOVENALE DECilVIO GIUNIO QPL 310; SD870,911; EP 314 - Satira VI, rr5-32 QPL 310; [348- 49] VM 466 «Gioventù Socialista (La)» M II 87</t>
+  </si>
+  <si>
+    <t>GIUSTI GIUSEPPE, tosco Giuseppe QPL 307; SD 1222 - [Sant'Ambrogio, 1, 9, 69, 71] SD 1222</t>
+  </si>
+  <si>
+    <t>GOETHE JOHANN WOLFGANG L'A 559; QPL 308; VM 465, 584, 617, 650; SD 761-63, 772, 863, ro28, ro6o, 1083, n16, 1II8-19, 1138, rr46; Te IIIO;AS 1160 - Faust SD 759-63; * Ariel SD 761; dottor Faust, Fausto SD 761-62, ro68; Homuncuius SD 762; Margherita M 558; SD 761-62; Mefisto SD 762; Valentino SD 762; Wagner SD 762 - Romische Elegien VM 584; SD 673,863, n18; Te1uo; [I,13]VM 549; SD 863; [VII, 8] SD 772-n; [9] SD 673; (17] VM 585; (25-26] VM 586; SD r n8; (26] MdS 903 - Sulla metamorfosi delle piante VIVI di un osso intermascellare nell'uomo, come negli animali VM 650-51 - Teoria dei colori VM 651</t>
+  </si>
+  <si>
+    <t>GOGOL NJKOLAI QPL 307; SD 896</t>
+  </si>
+  <si>
+    <t>GOLDONI CARLO Mdl 83; VlC 358; SD ro36-37, ro39, rr74; PLF18 - La locandiera SD ro36; * Mirandolina SD ro36-38 - Le baruHe chiozzotte SD 1038</t>
+  </si>
+  <si>
+    <t>GONCOURT [fratelli] SD 708</t>
+  </si>
+  <si>
+    <t>GONGORA Y ARGOTE LUIS SD 967</t>
+  </si>
+  <si>
+    <t>GOURMONT REMY DE SD 709 - Estetica della lingua francese SD 709</t>
+  </si>
+  <si>
+    <t>GOZZANO GUIDO SD 769, 1187</t>
+  </si>
+  <si>
+    <t>GOZZI GASPARE VM 606</t>
+  </si>
+  <si>
+    <t>GRAZZINI ANTON FRANCESCO SD 887</t>
+  </si>
+  <si>
+    <t>GUEUX SD 97</t>
+  </si>
+  <si>
+    <t>GU!CCIARD!NI FRANCESCO QPL 308; SD 796-97, 835-36, 1049-50, 1153, 1194-95 - Storia d'Italia SD 734</t>
+  </si>
+  <si>
+    <t>GUIDACCI MARGHERITA V)l!i 626-28 - La sabbia e l'angelo VM 626</t>
+  </si>
+  <si>
+    <t>GUNDOLF FRIEDRICH SD 763</t>
+  </si>
+  <si>
+    <t>GUZZO AUGUSTO MM 1316, 1318, 1320, 1330-32</t>
+  </si>
+  <si>
+    <t>HAUPTMANN GERHART GGP 828
+- Die versunkene Glocke GGP 828</t>
+  </si>
+  <si>
+    <t>HAWTHORNE NATANIELE SD I I 16, 1II8-19 - The marble Faun, Il fauno di marmo SD 1II8</t>
+  </si>
+  <si>
+    <t>HEGEL GEORG WILHELM FRIEDRICH AG 907; EP 277; P 880, 882; MM 820,
+834; MdS 9r4</t>
+  </si>
+  <si>
+    <t>HEINE HEINRICH CdU 265, 280; RaI 1045-46; SD 970, 1073; GGP 844;
+MM 784,786</t>
+  </si>
+  <si>
+    <t>HOFMANNSTHAL HUGO VON VM 597; SD 967, 1061</t>
+  </si>
+  <si>
+    <t>HOLDERLIN FRIEDRICH VM 596</t>
+  </si>
+  <si>
+    <t>HUGO VICTOR VM 552; SD 717, 732, 1083, ro99, III7; P881; MM 751 - I miserabili AG 649; P 881 - [Les contemplations V, XIII, 15- 16]MM675</t>
+  </si>
+  <si>
+    <t>HUXLEY ALDOUS LEONARD V]C 366 - Those barren Leaves VIC 366</t>
+  </si>
+  <si>
+    <t>RICHTER JEAN PAULCdD 578; VM 634 - Levana VM 634-35</t>
+  </si>
+  <si>
+    <t>JOYCE JAMES VM 611; SD 947, 1114, II l7 - Dubliners VM 61 r; An encounter VM611 - Vlysses SD 1028</t>
+  </si>
+  <si>
+    <t>JUNG KARL GUSTAVA 277</t>
+  </si>
+  <si>
+    <t>KANT IMMANUEL MdF 43; QP 16; QPL 282, 307; AG 813; VM 563) 585, 630; SD 760) 945; P 880, 882; EP 1059; RI 448, 597, 1289, 1292; MM 645, 676, 741, 828: 834, 1328) 1335) 1341 - Critica della Ragion Pura, Analitica L'A 476</t>
+  </si>
+  <si>
+    <t>KIPLING JOSEPH RUDYARD, Cheplingo SD 709; PLF 67; RI 573 -Kim EP332</t>
+  </si>
+  <si>
+    <t>[LACLOS PIERRE CHODERLOS DE] - Les liaisons dangereuses SD 1094</t>
+  </si>
+  <si>
+    <t>LA FONTAINE JEAN DE, ser Gianni visconte della Fontana CdU 168; CdD 644, 682; AG 756; VNl 535; PLF 56, 66; LdF 149, 2II; EP252 - Maìtre Corbeau CdD 682; AG 756; [1] EP 344</t>
   </si>
 </sst>
 </file>
@@ -383,10 +704,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,6 +727,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -668,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE68"/>
+  <dimension ref="A1:AE174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1112,6 +1440,536 @@
         <v>99</v>
       </c>
     </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Corrispondenze.xlsx
+++ b/Corrispondenze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d451be126981215/Desktop/GitHub/Gadda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="11_AD4D5CB4E552A5DACE1C641830185D485BDEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4D3C1A3-AD52-4B32-9829-D7EC2BFA59F3}"/>
+  <xr:revisionPtr revIDLastSave="409" documentId="11_AD4D5CB4E552A5DACE1C641830185D485BDEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5705F4A6-8F9B-472B-ACEA-96315F7A163A}"/>
   <bookViews>
     <workbookView xWindow="10980" yWindow="132" windowWidth="11892" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="396">
   <si>
     <t xml:space="preserve">ABRAHAM PIERRE </t>
   </si>
@@ -646,6 +646,645 @@
   </si>
   <si>
     <t>LA FONTAINE JEAN DE, ser Gianni visconte della Fontana CdU 168; CdD 644, 682; AG 756; VNl 535; PLF 56, 66; LdF 149, 2II; EP252 - Maìtre Corbeau CdD 682; AG 756; [1] EP 344</t>
+  </si>
+  <si>
+    <t>LAMARTINE ALPHONSE DE SD 1022, II17;MM695 153- Ha1monies poétiques et religieuses MM 695</t>
+  </si>
+  <si>
+    <t>LANDOLFI TOMMASO (Tom) SD 951, 972; EP 270, 1058 - La fidanzata [ = moglie] di Gogol EP 1058</t>
+  </si>
+  <si>
+    <t>LANSON GUSTAVE SD 723-24, 726, 1062; LdF 195 - Histoire de la littérature française SD 723</t>
+  </si>
+  <si>
+    <t>LAROUSSE PIERRE VM 478</t>
+  </si>
+  <si>
+    <t>LEIBNIZ GOTTFRIED WILHELM, Leibnizio L'A 438; QPL 307; Mdl 22; A 208; VlC 284, 409; VM 614, 655; SD 691, 729, 760, 821, 906, 908, 945, 1099, 1157, Il'Ol; EP 324, 335, ro3r, 1047; DI 53, 78, 173; RI 448, 1281; MM 639, 655, 665, 676, 691, 705-06, 739, 749, 760, 772, 789, 820, 832, 861, 887, 892,, 1314, 1317, 1323, 1336, 1339-, 1356, 1361 - Essais de Théodicée VM 614; Saggi della giustizia divina o Teodicea I, 61 MjVl 705, 1336, 1365 - Nouveaux Essais sur l'Entendement Humain L'A 438;· 559; CdD 691; MM 1361, 1365</t>
+  </si>
+  <si>
+    <t>u,oNARDO DA VINCI, il Vinci CdU 21 3, 216, 279; L'A 421, 472-73; QPL 307, 343; RD 974; Mdl 150; A 268; VlC 334, 401-04, 406-rr, 413-18; VM 595, 605; SD 858, 880, 906, 975; PLF 36, 41-43, 56, 58, 77; DT 161, 174-75, 180 - Adora,zione dei Magi VlC 415 Annunciazione [degli Uffizi] VlC 415 - Annunciazione [del Louvre] V!C 415 - De ludo geometrico CdU 216 - Ginevra Benci V!C 41,6 - Il musico V!C 415 - La Battaglia di Anghiari VlC 404; 410 - La Belle Ferronière VlC 415 - La Cena, Il Cenacolo M 506; V!C 403-04; DT 185 - La dama dalia reticella di perìe V!C 415 La dama dell'ermellino V!C 415 - La Gioconda, Monna Lisa V!C 415; DI 187; AS II66 La Vergine deile Rocce, Vierge aux Rochers CdU 2 79; V!C 404, 41s La Vergine, Sant'Anno e ii Biml){J V!C 415 - Leda VlC 415 - Madonna dei Fiore VlC ,,15 - Madonna Litta V!C 417 - R.itmtto di Isabella VlC e: 6 San Gemiamo VlC 415 - San Giovarmi Battista V!C 415 [Familiari] Albiera VlC 404 - Antonio di ser Piero di ser Ghuido da Vinci V!C 403; PLF 36, 41, 43, 58 Chaterina VlC 404 - Francesco VlC 404 - Monna Lucia VlC 404 ser Piero V!C 404</t>
+  </si>
+  <si>
+    <t>LEOPARDI GIACOMO, conte Liopardo, il recanatese QPL 307; RaI {046-47; VM 469, 551, 569, 618; SD 678, 770, 815, 835, 968, 979, 1063, 1083, II68; EP 235, 326; GGP 616, 673, 747; Rl 484; MM 683, 784,893 - Aspasia RaI 1046 Bruto Minore SD 1063; (53-55] M 562 INDICE DEI NOMI - Il passero solitario [17] SD 770 - [Ilsabato del villaggio, 43] SD 770 - [La quiete dopo la tempesta, 20-21] SD 1221; [26] SD 770; [14-15] RI 490 - [La sera del dì di festa, 1] SD 680; Rl592 - Pensieri, I EP 235 - Zibaldone MM 683 [F amicliari] - Adelaide Antici VM 469, 605; SD 7 13 - Monaldo SD 713</t>
+  </si>
+  <si>
+    <t>LEVI CARLO SD 985, 987 - Cristv si è fermato a Eboli SD 987</t>
+  </si>
+  <si>
+    <t>LINATI CARLO Mdl 50; SD 884, 896, 970; SA875</t>
+  </si>
+  <si>
+    <t>LIVIO TITO CdU 127, 133, 152; L'A 473; CdD 688; RD 973; VM 578; SD 751, 833, 997, no6, 1108, 1uo, n36, n55; EP1059; Rl 473, 478,489; MM 814; AS 1157 - [Ab urbe condita XXII, 1, 2] SD 1108; XXII, 3, [4]CdU\33; DT68; [XXII, 1, 1] AS r 157</t>
+  </si>
+  <si>
+    <t>LORIA ARTURO SD 884</t>
+  </si>
+  <si>
+    <t>LOWE HUDSON SD 7 49 Loyola (il) , SANTI, Ignazio</t>
+  </si>
+  <si>
+    <t>LUCIANO DI SAMOSATA Mdl 49; VM 650</t>
+  </si>
+  <si>
+    <t>LUCREZIO CARO TITO L'A 487; Mdl 147; Vl\1 361; SD 819, 1028; DT 197; MM 784,893 - De rerum natura DT 197; [III, 431- 32] SD 819</t>
+  </si>
+  <si>
+    <t>LUZI MARIO SD 949, 960</t>
+  </si>
+  <si>
+    <t>MACHIAVELLI NICCOLÒ, messer Niccolò, Segretario della Repubblica M 561; MdI 143; A 232; VIC 310;VM 545; SD 732, 734, 736, 739, 1091- 94, II58; EP224, 245, 253; GASP ro92; RI 573, 580; MM 843; MdS 922 - Dell'arte della guen-a SD 734 - Discorsi sopra la prima deca di Tito Livio CdU 130 - Il Principe CdU 130; SD 685; RI 597; [XXV] EP245 - LaMandragola VM 535; 1091-94; '' Callimaco SD 1093, 1095; Fra' Timoteo SD 1095; Ligurio SD 1093, 1095; Lucrezia SD 1094; Messer Nicia SD 1092-95; Siro SD 1093 - Storie Fiorentine RI 'i8o</t>
+  </si>
+  <si>
+    <t>MAETERLINCK MAURIZIO L' A 558; SD 677,896 - Laviedes abeilles L' A 558 - Pelléas et Mélisande SD 677</t>
+  </si>
+  <si>
+    <t>MAGALOTTI LORENZO SD 821 - Lettere Scientifiche, 27 SD 821</t>
+  </si>
+  <si>
+    <t>MAGGI CARLO MARIA VM 552</t>
+  </si>
+  <si>
+    <t>MAGLIOCCO VITO DT 64</t>
+  </si>
+  <si>
+    <t>MALEBRANCHE NICOLAS SD 82r; LdF r52</t>
+  </si>
+  <si>
+    <t>MANN THOMAS V]C 366 Mario und der Zauberer \l!C 366</t>
+  </si>
+  <si>
+    <t>MANTEGAZZA PAOLO AG 653,679</t>
+  </si>
+  <si>
+    <t>MANZINI GIANNA SD 771-79, 884; L_• 72; SA 875; AS II45, 1147 - Boscovivo SD 773-74 - Paese allo specchio SD 772</t>
+  </si>
+  <si>
+    <t>MANZONI ALESSANDRO, Don Alessandro, il Poeta CdU 177; L'A 339, 4 18, 5 62; CdD 760; QPL 308; AG 913- 14; VM 452, 456, 490, 500, 5o3, 505, 552, 554, 651; SD 685-87, 689-91, 699, 724, 835, 86o, 9II, 93s, 973, 9 86, 1009, 1023, ro75, 1077, ro99, 1163-64, 1167, lI7t   [8o-8r] CdU 177
+_ IlCinqueMaggioL' A375; SD rr64;
+[6] SD 1223; [r9, 97, 99] RI 474,
+480
+- Il conte di Carmagnola SD 689 _ In morte di Carlo Imbonati SD r223; MM 788 _
+_ Inni Sacri SD 689; I&gt; La Pentecoste
+L'A 439; CdD 698; [14r-42] MM
+844 -
+- I Promessi Sposi L'A 33r, 479; VlC
+417; VM 500, 552, 563; SD 679,
+69r, 836, ro63, rr77-79; LdF n6,
+I2o; EP 327; GGP 566, 588; A
+s73; RI 46r, 574; MM 7or, 712,
+7
+88; MdS 9r5; [Il CdD 721; A 227;
+V!C 299; SD r175, rr92; VM
+500, 503; [XXIV] SD 998;• Agnes
+PLF 27; MdS 9
+22_; Azzeccagarbugli
+AG 675; MM 84r; Car nale Federigo VM 563; Conte Zio Mdl 7
+2 VIC 352; SD rr79; Cristoforo [ser- vo] SD 1206; Don Abbondio QPL
+420; AG 863
+; VM 500; SD 685,
+949, 998, ro23, rr75, r,178-79;
+GGP 484; Don Ferrante LA 487; RD 973; RaI rr24; VM 435, 452;
+SD 683-85, rq9; DT2or; RI 596-
+97; Donna Prassede SD 1179; EP
+1049; RI 411; MM 744; Don Rodrigo VM 503; SD rr79; Fra' Cristoforo, il figliolo del mercante SD 836,
+1206; Fra' Galdino SD 876; EP
+1046; Innominato VNi 563, 69r; SD
+998; Lucia r,ilondella L'A 322, 334,
+479; AG 646, Sfo; SD 679, 687,
+691, 876; PLF 27; RI 591,599; Monaca di Monza, Gertrude VM 563;
+SD 1023, 1178-79; Perpetua RD
+964; Provinciale de' Cappuccini MdI 72; VlC 352; SD rr79; Renzo,
+Lorenzo Tramaglino CdU 268; L' A
+334; AG 646, 675, Sfo; VM500-01,
+503; SD 686-87, rq9; LdFr16; EP
+336; SA 873; RI,597-99; Sarto GGP
+588; Vicario di provvisione SD 681;
+RI 593 - Osservazioni sulla iVlorale Cattolica SD689
+- [Urania, 2] L'A 452; SD ro75
+[Familiari]
+- Don Pietro AG 913; SD rr8o, 1224 - Filippo SD r222 
+81, 1206, 1222-24; LdF 120; GG_
+455-56; SA 873; EP 1035; DT 200-
+o1; RI 397, 46r, 474, 4So, 574, 59o,
+599; MM 695, 702, 778, 788, 840,
+844,848,894, r333
+- Adelchi SD 679, 689; [a. 111, coro,
+31-33, 43-44] VM 517; a. IV, coro</t>
+  </si>
+  <si>
+    <t>CARACALLA MARCO AURELIO SEVERO ANTONINO MdF 77; CdD 703; Mdl r36;VM6q</t>
+  </si>
+  <si>
+    <t>MARGUERITTE VICTOR SD 687; Rl 599</t>
+  </si>
+  <si>
+    <t>MARIANI VALERIO AS II 47</t>
+  </si>
+  <si>
+    <t>MARINO GIAMBATTISTA SD 879 - Dicerie sulla pittura e sulla musica SD879 - La galerìa SD 880</t>
+  </si>
+  <si>
+    <t>MARTINETTI PIERO L'A 451; SA 874</t>
+  </si>
+  <si>
+    <t>MARTIN! QUINTO VM 626</t>
+  </si>
+  <si>
+    <t>MARX KARL Rl 5 51</t>
+  </si>
+  <si>
+    <t>MARZIALE MARCO VALERIO VM 535; 708; SD 870; PLF 28</t>
+  </si>
+  <si>
+    <t>MASCHERONI LORENZO V)C 405</t>
+  </si>
+  <si>
+    <t>MASUCCIO SALERNITANO, Tomaso Guardati SD 1121-22, rr24 - Novellino SD 1 r 22</t>
+  </si>
+  <si>
+    <t>MAUPASSANT GUY AG 852; EP 258</t>
+  </si>
+  <si>
+    <t>MAZZINI GIUSEPPE, grande Genovese L'A 432, 491, 546, 562; CdD 696; QPL 307; VM 433, 507-08; SD 943- 44; MM 769</t>
+  </si>
+  <si>
+    <t>Lorenzo il Magnifico SD 735, 888, 1022, 1048, 1050, 1093, rr23, 1158-59; EP 246</t>
+  </si>
+  <si>
+    <t>MELVILLE HERMAN VM 616, 885</t>
+  </si>
+  <si>
+    <t>MEREDITH GEORGE VM 640-41, 663; SD ro99; EP 369-70 - The egoist VM 640,663; EP 369</t>
+  </si>
+  <si>
+    <t>MESSINA FRANCESCO QP r58; QPL 458; Mdl63</t>
+  </si>
+  <si>
+    <t>METTERNICH-WINNEBURG KLEMENS, duca di Portella SD 833-34; RI 553</t>
+  </si>
+  <si>
+    <t>MICHELET GIULIO LdF 106, 122, 125- 26, 128, 136, 146 - Histoire de France LdF 122, 125, 128</t>
+  </si>
+  <si>
+    <t>MIGLIORINI BRUNO VM 490-91, 493; SD 867</t>
+  </si>
+  <si>
+    <t>MOLIÈRE, Jean-Baptiste CdD 682; AG 756; VM Poquelin 651; SD ro92; LdF 176, 208-rr;
+MM732
+- Don Giovanni QP 88 - [Geoiges Dandin, a. I, se. 7] SD
+ro30, ro92; '' Georges Dandin SD
+ro92
+- La scuola dei mariti LdF 209
+- La scuola delle mogli, L'école des
+femmes LdF 176, 209
+- L'avare CdD 682; AG 756; RI 485
+- Le bourgeois gentilhomme LdF 203,
+205; '' Célimène [ Dorimène] LdF
+208; Dorante LdF 208; Jourdain
+LdF 206,208
+Le malade immaginaire LdF 2 r1
+- Le misanthrope CdD 682; AG 756
+- Les femmessavantes LdF 2 ro
+Les précieuses ridicules LdF 209
+- TartuHe, Tartufo LdF 209; EP 344MOMMSEN TEODORO SD 1020</t>
+  </si>
+  <si>
+    <t>MOMMSEN TEODORO SD 1020</t>
+  </si>
+  <si>
+    <t>MONELLI PAOLO Mdl 65; SD 746, 812</t>
+  </si>
+  <si>
+    <t>MONTAIGNE MICHEL EYQUEM DE VM 658; SD 906, 1rr6-17; LdF 99-100, 211;MM846</t>
+  </si>
+  <si>
+    <t>MONTALE EUGENIO A 246; SD 756, 758, 765-71, 881-85, 960, 980, 1061, 1220; SA 875 La casa dei doganieri e altri versi SD 765, 884, r 215; La casa dei doganieri SD 765, 1061 - Le occasioni SD 885; Notizie dall'Amiata SD 885; [II, 6-7] SD 885 - Ossi di seppia SD 765, 882, 885, 12r5, r218; [&gt; In limine [15-16] SD 768; [&gt; [Movimenti] [Como inglese, 7-9] SD 1217; Falsetto [4] SD 770; I&gt; Ossi di seppia SD 12r8; [I, r-12] SD r219; [Il]Meriggiare [I, 9-r2] SD r217-r8; [III, 1-8, 13-24] SD r219- 20; [21-22] SD r2r8; [IV, 1-2] SD 885; [XV, 9-10] SD 883; t&gt; Mediterraneo [IV, r3-r4] SD 882; V [13] SD 770;I&gt; [Meriggi e ombre] Vasca [r9 = variante soppressa] SD 770; Arsenio [10-r2] SD 768; Crisalide [53-54] SD 768; Delta SD 768; [1r-12] SD 885; [17, 19-20] SD 768; [r9-20] A 246</t>
+  </si>
+  <si>
+    <t>MONTESQUIEU, Charles Louis de Secondat L'A 334; QP Sr; LdF 195, 200 - Lettere persiane LdF 195</t>
+  </si>
+  <si>
+    <t>MONTI VINCENZO A 240; SD 771, 1063, 1205 [ Pindemonte] Basvilliana [I, 1-3] GASP 399</t>
+  </si>
+  <si>
+    <t>MORAND PAUL VM 597; SD ]0I-02, 708, 7ro-12, r196 - Milneufcent V!Vl 597; SD 701, rr96</t>
+  </si>
+  <si>
+    <t>ORAVIA ALBERTO Mdl 65; VIC 364; \TM 471, 6or, 606, 608, 610; SD 949, 11r3, rr76-80 - Agostino VM 471, 60,, 606-07 - La Romana VlC 364 L'imbroglio VM 606 - Racconti Romani SD rr13</t>
+  </si>
+  <si>
+    <t>MORGAN THOMAS HUNT M 484; AG 6II</t>
+  </si>
+  <si>
+    <t>MURATORI LUDOVICO ANTONIO MdI 166; VlC 323; SD 738, 835; MM 683 Annali d'Italia MdI 166; VlC 323 Trattato del governo della peste SD 819</t>
+  </si>
+  <si>
+    <t>MUSSET ALFRED DE SD 970</t>
+  </si>
+  <si>
+    <t>v!USSOLINI BENITO RI 483, 516, 529; Amatissimo, Appestato Appestatore, Artefice, Batrace (-Tritacco), Batràco, Bombetta, Buce, Caciocavallo, Caino, Capo del Governo, Ciuco (/Principe) 1ì6 Maramaldo, Condottiero d'Italia in guerra Lampo, Cupo nostro, de Quo, Duce, Estrovertito, Ex-Bomba, Facciaferoce, Faba NJ.agna (/Optima Nl.axima Unica), Fava (-Nl.arcia), Favente Genio, Fetente, Fondatore dell'Impero, Furioso Ingrogato, Gangàride, Generale Cassiodoro Dell'Oca Beverona, Ginocchio, Giove (/Priapo) Ottimo Nl.assimo, Glorioso, Gradasso ipocalcico, Grande Imago, Gran Khan, Gran Nl.aestro, Gran Pernacchia, Gran Somaro Nocchiero, Gran Tamburane del Nulla, Gran tauro, Grugnone Sanguemarcio, Inturgidito Nl.odellone, Kuce (-fortuna), Nl.accherone fottuto di Predappio, Nl.aldito, Nl.aramaldo, Nl.archese delle Caminate, Nl.arco Aurelio ipocalcico dalle gambe a ìcchese, Nl.aresciallo, Nl.ascella d'asino Nl.altone, Mascellone ebefrenico (-Nl.ago/Unico), Merda, Nl.erdonio, Minchiolini, Nl.inchione Ottimo Nl.assimo, Nl.odellone Torsolone, NJ.ugliante, Napoleone fesso e tuttoculo, Nero personaggio, NulIapensante, Paflagone energetico (/inturgidito), Pirgo, Pirgopolinice (-Bombarda di Tripla Greca), Poffarbacco, Predappio, Priapo-Imagine (-d'Asino), Primo Racimolatore e Fabulatore ed Ejettatore, Pro/eta forlimpopolo, Provolone, Pulcinella finto Cesare, Pupazzo (-numero uno/ a Palazzo Chigi), Quer Tale, Quirino (/Rincoglionito Q.), Scipione Affricano del due di coppe, Smargiasso, Somaro (-dalle gambe a ìcchese / in ragli/ in-tromba), Somiero, Sovrano seminatore, Stivaluto, Super Balano, Tauro zefìreo, Testa di Nl.orto, Trebbiatore, Trombone e Natieone ottimo massiiizo, Truce, Tuberone, Tutore della Ital({l, Verbo sterile, Vigile dei destini QP 55, 73, 86-87, 90, 92-94, 128, 132, 147, 155, 158, 160, 231, 268; QPL 306, 308, 324, 346,359,361, 364-65, 398-99, 411, 417, 434, 448, 452, 456, 459; AG 777, 796-98, 800, 810-rr, 813, 861, 880, 885; VlC 366; VM 434, 441- 42' 496, 595, 64,':, 643; SD 806-07 , 864, 940-42; PLJ:&lt; 35-36, 41, 43-45, 47, 59, 66, 69-73, 955; EP 222, 224- 25, 227-29, 236, 241-43, 247, 250, 254, 258, 260-68, 270-72, 274-76, 280-81, 284-86, 294,296,300, 302, 304-06, 309, 311-12, 3I4-15, 317, 321, 333, 340, 352, 363, 1036, 1060-61, 1065-66; DI 25; MdS 921-22</t>
+  </si>
+  <si>
+    <t>NEGRl GAETANO L' A 458,476</t>
+  </si>
+  <si>
+    <t>NIETZSCHE FRJEDRICH AG 653' A 2.1a· VM 596; SD 687, 709, 90;, II;;: E2P58,355; RI 599</t>
+  </si>
+  <si>
+    <t>NIEVO IPPOLITO CdU 185) 217; SD 750,752,971</t>
+  </si>
+  <si>
+    <t>NOLHAC PIERRE DE SD 11 I7; LdF 175</t>
+  </si>
+  <si>
+    <t>NOVALIS FRIEDRICH LEOPOLD VON HARDENBERG SD 879; 1060; GGP 844; RI 450 Inni alla Notte SD 879</t>
+  </si>
+  <si>
+    <t>OJETTI UGO SD 830; SA 875</t>
+  </si>
+  <si>
+    <t>OMERO CdU 180, 268; L'A 311; A 240; VM 491; SD 729, 824, 908, 937, 978, 1022, 1171, 1203; PLF 18; GGP 848; EP ro42; DT 29; RI 450,476; MM682, 790 - Iliade AG 799; VM 618; SD 824, 965, 1205: PLF 32; DT 126; [I, 12] GASP 1097; VI [444] RI 476; [XVIII, 370,469] A 240-41 - Odissea MdI 87; SD 1205; DT r37; [XVII, 326-27] SD 1206 Omicidiale Denegatore d'ogni umana condizione HITLER</t>
+  </si>
+  <si>
+    <t>ORAZIO PLACCO QUINTO, il poeta (immortale / di Roma), Venosino MdF 79; CdU r32, r37, 2ro; QPL 307; _!</t>
+  </si>
+  <si>
+    <t>OTTO WALTER F. L'A 341 Gli dei della Grecia L'A 341</t>
+  </si>
+  <si>
+    <t>OVIDIO NASONE PUBLIO, Ovidius, il buon Naso, il Nasone, il Sulmona CdU 243; QP 148; QPL 449; RaI ro6z; Mdl 163; VM 534, 636, 645- 47, 652, 662; SD 870; PLF 42, 45, 77; EP 273,372; DT 197; RI 604 [Amores, III, 15,7-8] PLF 68 - [Ars Amoris, I, 655-56] PLF 45 - Fasti, II [441] PLF 42; V, 725-26 A 241 - Metamorfosi, Metamorphoseon quindecim libri, Trasfigurazioni VM 645, 662; EP 372; DT 197; III [353-55, 357-58, 361, 380, 386-87, 426, 450- 52, 461-62, 464] VM 645-49; [XV, 400] EP 273 Tristia VM 636; SD 680; 106 VM. 636</t>
+  </si>
+  <si>
+    <t>PALAZZESCHI ALDO SD 769, 933-41, 1187 Due imperi .. i'nancati SD 934 36 - Tre imperi ... mancaii SD 940 - Il palio dei buffi SD 934,937,939 - Poesie SD 936 - Sorelle Materassi SD 934; '' zie Maternssi SD 938 - Stampe dell'800 SD 934, 936-37</t>
+  </si>
+  <si>
+    <t>PANCRAZI PIETRO SA 875</t>
+  </si>
+  <si>
+    <t>PANZINI ALFREDO M 562;RI 396, 462; MM702</t>
+  </si>
+  <si>
+    <t>PAOLI UGO ENRICO SD ro97, ro99</t>
+  </si>
+  <si>
+    <t>PAOLO WARNEFRIDO [Paolo Diacono] L'A 336; QPL 307 - De Gestis Langobardorum, IV, 22 L'A336</t>
+  </si>
+  <si>
+    <t>PARIBENI ROBERTO SD 840-43, 873 Da Ottaviano a Teodosio SD 838</t>
+  </si>
+  <si>
+    <t>PARINI GIUSEPPE, abate-poeta, zl pw ca- [La partenza del boscaiolo, r r-14] rode' miei Giuseppi L'A 461; CdD Te II 16 rJ 68o,· AG 754,. RD 100 ; RaI 1rr9</t>
+  </si>
+  <si>
+    <t>VM ;2; SD 846, 10;6, 1222-23; EP 268; GASP 423-24; MM 783 [Il giorno I&gt; Mattino, 129-36] RD 1005; [3
+8-
+39] DT 68; '' Il giovin si- gnore SD 754 POI CONNTROLLA VAH</t>
+  </si>
+  <si>
+    <t>PARRONCHI ALESSANDRO SD 966-69 Ccontrolla</t>
+  </si>
+  <si>
+    <t>PASCAL BLAISE QPL 307; SD,691, e; 209 . 831, 1161; LdF 152</t>
+  </si>
+  <si>
+    <t>PASCOLI GIOVANNI, Zvanz' QP 204 CONTROLLA</t>
+  </si>
+  <si>
+    <t>PASQUALI ' [Giorgio] SD 1017-18, CONTROLLA</t>
+  </si>
+  <si>
+    <t>PAULSEN FRIEDRICH Rl 1274, 1356</t>
+  </si>
+  <si>
+    <t>PEA ENRICO VlC 363, 365; SD 884, 985, l 145 - Moscardino VlC 365</t>
+  </si>
+  <si>
+    <t>PÉGUY CHARLES SD 716; EP 1050 - [La Tapisserie de Notre-Dame, Présentation" de la Beauce 97-100] EP 1050-51</t>
+  </si>
+  <si>
+    <t>PELLICO SILVIO SD 752; RI 479; MM 697 - Le mie prigioni SD 752</t>
+  </si>
+  <si>
+    <t>PENNA SANDRO, Penna d'Apruzzo VM 6z6-28; PLF 67-68 - Poesie VM 626</t>
+  </si>
+  <si>
+    <t>PESTELLI LEO Mdl 65</t>
+  </si>
+  <si>
+    <t>PETRARCA FRANCESCO, il cantore di Loretta MdF 77; L'A 452; QPL 307; M 530; AG 615; A 233; V]C }II, 387, 389-91, 393-95, 397, 407, 417; VM 435, 535; SD 769, 909-11, 998, 1073-76, III6, 1I20, 1158, II60, 1163; PLF 38; EP 237; DT 171; RI 605; MM 732, 788, 983 - De A/frica SD 680; RI 592 De remediis utriusque fortunae VM 535 - De vita solitaria VlC 397 - [Epistole metriche, Ad Italiam, 1] DT r7r - Familiari VM 535; SD rr58; VII, 15 VlC 389-90; [XVII, ro] VlC 393; XIX, r8 VlC 394; XXI, 14 VlC 394; XXI, 2 [ II] VlC 395; XXI [=XIX], r6 VlC 396; XXII, 12 VlC 396 - Rerum vulgarium fragmenta SD rr63; [XXXV, 1-2] VIC 394; [CCCII, 1-4] EP 360; [CCCLXVI] Canzone alla Vergine VM 471; SD 680; RI 592; [89-91] VM 571; MM 893 - Secretum VM 535 Senili SD rr58 - Trionfi VlC 407; VM 535</t>
+  </si>
+  <si>
+    <t>PETROCCHI GIORGIO SD IIZI-22</t>
+  </si>
+  <si>
+    <t>PICCIONI LEONE VlC 363; PLF 73; EP 1066</t>
+  </si>
+  <si>
+    <t>PIER! PIERO SD 755</t>
+  </si>
+  <si>
+    <t>PIOVENE GUIDO VM 600, 765</t>
+  </si>
+  <si>
+    <t>PIRANDELLO LUIGI SD 931; MM 788</t>
+  </si>
+  <si>
+    <t>PITAGORA CdU 256; QP 230; QPL 307; SD 908, 1002, n89; GASP 422; GGP 455; P 882; MM 689, 789-90, 848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLATONE, Plato QPL 308; VlC 403, 407; VM 586, 616, 651; SD 760, 908-ro, 944, 987, 1027, IIIJ: PLF 18,953; EP 231, 237, 269, 1035; GASP 422; P 880, 882; MdS 914; AS rr59 - Fedro CdU 202; CdD 637; AG 741; EP 231 - Leggi CdD 727 192- Parmenide CdD 715 - Simposio CdD 727 - Timeo L'A 404; CdD 607; VIC 403; SD 729; EP 231 </t>
+  </si>
+  <si>
+    <t>PLAUTO TITO MACCIO CdD 682; AG r;6; A 257; VM 498, 535-36; SD 870, 1019; EP 239 Amphitruo VM 535; '' Sosia VM 535 - Miles gloriosus VM 498; '' Pirgopolinice VM 498</t>
+  </si>
+  <si>
+    <t>PLINIO IL GIOVANE V!C 291</t>
+  </si>
+  <si>
+    <t>PLUTARCO SD 1109; MM 682</t>
+  </si>
+  <si>
+    <t>POE EDGAR ALLAN RaI 1029; V!C 408; SD 1060</t>
+  </si>
+  <si>
+    <t>POLIZIANO, Agnolo Ambruogini SD 1022, 1158-59; PLF 35, 49,955</t>
+  </si>
+  <si>
+    <t>POLO MARCO VM 452; SD 991-92,., 994-96 - Il Milione SD 992,996</t>
+  </si>
+  <si>
+    <t>PORTA CARLO, grande vicino ed omonimo QPL 347; Mdl 49; VM 518, 552-53, 560; SD 856, 911, ro63, rr54, 1168, 1194; EP 362; MM 787 - A 6n contìn bergamaschìn ch'el fa el bruschìn contra d'i meneghìn SD rr54 - [Desgrazzi de Giovannin Bongée, 2] M 5 rr; '' Giovannin Bongée CdU 23o;M5rr - Elstriozz (La chiamata del diavolo) [42]VM518 - Fraa Diodatt 1-4 QPL 347 - [Lament del Marchionn di gam avert] '' Marchionn L'A 439; CdD 698 - La Ninetta del Verzee VM 552; [341) M 565 194- La nomina del Cappellan AG 6:57; VM 552; [8] M 565; b-ro] VM518; [59] DT 89 - [Lapreghiera, r] M 565 - [Meneghin biroeu di ex monegh, 7, 54] EP 362-63 - Semm d'accord VM 553 - Sent Teresin VM 553 - Sura Catterinin VM553</t>
+  </si>
+  <si>
+    <t>POZZA NERI SD ro19; PLF 72-78</t>
+  </si>
+  <si>
+    <t>PRAGA EMILIO SD 970-72</t>
+  </si>
+  <si>
+    <t>PRATOLINI GUASCO [Vasco] PLF 69</t>
+  </si>
+  <si>
+    <t>PRAZ MARIO SD 1114</t>
+  </si>
+  <si>
+    <t>PROUST MARCEL L'A 559; AG 802; VIC 397; VM 472, 616, 621; SD 7IO-II, 716, 731, 947, 978, 986, 1022, II95 Ricerca del tempo perduto, Recherche CdU 268; VM472-73; SD 947; I&gt; Du coté de chez Swann VM 473; I&gt; Guermantes VM 473; I&gt; Sodome et Gomorrhe VM 473; '' Baron de Charlus SD 711</t>
+  </si>
+  <si>
+    <t>PULCILUIGI SD II 5l</t>
+  </si>
+  <si>
+    <t>QUEVEDO FRANCISCO DE VM 6r9</t>
+  </si>
+  <si>
+    <t>RABELAIS FRANçors, Rablesio L' A 420, 562; VM 497; SD 1rr6-q - Pantagruel, roi des Dipsodes VM 497; LdF 2rr;II, IVM497</t>
+  </si>
+  <si>
+    <t>RACINE JEAN CdD 682; AG 756; SD ror3; LdF210; RI 450 - Alessandro il Grande LdF 2ro</t>
+  </si>
+  <si>
+    <t>RANIERI [Antonio] VM 618; SD 979</t>
+  </si>
+  <si>
+    <t>REMARQUE ERICH MARIA CdU I 3.5</t>
+  </si>
+  <si>
+    <t>RENAN ERNEST L'A 476; SD 708</t>
+  </si>
+  <si>
+    <t>RIDOLFI ROBERTO SD 1047, 1049-51 - Vita di Girolamo Savonarola SD 1047, 1050</t>
+  </si>
+  <si>
+    <t>RIGUTINI GIUSEPPE L'A 564; AG 680, 684,686</t>
+  </si>
+  <si>
+    <t>RILKE RAINER MARIA SD 967, ro6r</t>
+  </si>
+  <si>
+    <t>RIMBAUD ARTHUR, Arturo, CdU r6o; RaI 1029; VM 469, 56r, 571, 573- 75, 580, 586-88, 616-18, 627; SD 709, 968, 1059-60, 1062, 1074, 1154; EP 1037, 1064; MM 767, 788,805,860, 1319, 1344 [Poésies] Le bateau ivre VM 56r, 564, 571-74, 579, 582, 584; SD 1059-60, 1154; MM 628, 667, 676, 805, 860; [2, 19-20, 23-24, 45, 55- 56, 66, 68] VM 573-76; [55] MM 812; (84] MM 805; [87-88] VM 582; [84, 89, 91, 93-96] VM 579; Les chercheuses de poux VM 618; Les poètes de sept ans (1-4, 14-15, 33-34, 63-64] VM 573-74; Paris se repeuple VM 579; I&gt; [Poison perdu, 5-6] M 508; EP 305, 1064 - Une saison en enfer, Mauvais sang. VM575</t>
+  </si>
+  <si>
+    <t>ROLLAND ROMAIN CdU 168, 231; VM 597-98 - Jean Christophe CdU 2 3 r</t>
+  </si>
+  <si>
+    <t>RONCHI VlC 364, 367</t>
+  </si>
+  <si>
+    <t>ROSAI OTTONE QPL 398; SD 967-68; SA 875; AS 1148-50</t>
+  </si>
+  <si>
+    <t>ROUSSEAU JEAN·JACQUES, Gian Giacomo L'A 332, 494; M 562; VM 465- 66, 552, 609, 634-36; SD 707, 718; LdF 195; DT 68, 125; MM 732, 782-83 - Contratto sociale LdF 195 - Emile, Emilio L'A 507; AG 674; VM 633-35; DT 68; MM 1349; [Il L'A 359; DT 68 - Le confessioni, Les confessions AG 865; VM 465,609 ROUSSEL RAYMOND A 233; V]C 3rr ROVANI GIUSEPPE SD 970 - Cento anni SD 970 - Giovinezza di Giulio Cesare SD 970 - Libia d'oro SD 970</t>
+  </si>
+  <si>
+    <t>ROVETTA GEROLAMO GGP 812 - Romanticismo GGP 812,818</t>
+  </si>
+  <si>
+    <t>SABA UMBERTO, ser Berto VM 47r; SD 1rr3; PLF72 - Il Canzoniere, Il piccolo Berto VM 47r; Partenza e ritomo VJV147r; [4-9, 3r-32]VM472</t>
+  </si>
+  <si>
+    <t>SACCHETTI FRANCO VM 499; SD II2l - [Trecentonove/le] XI VM 499; '' AJ. berta da Siena VM 499-500; Messer Guccio Tolomei VM 499-500</t>
+  </si>
+  <si>
+    <t>SACHS MAURICE [Maurice Ettingshausen] VM 616 - Le Sabbat VM 616</t>
+  </si>
+  <si>
+    <t>SALLUSTIO GAIO CRISPO AG 675; Mdl r54</t>
+  </si>
+  <si>
+    <t>SANTI PIERO SD 960</t>
+  </si>
+  <si>
+    <t>SARPI PAOLO SD 682; RI 595</t>
+  </si>
+  <si>
+    <t>SBARBARO CAMILLO CdD 721</t>
+  </si>
+  <si>
+    <t>SCHELLING FRIEDRICH WILHELM JOSEPH SD 699, 760; p 880, 882; MM 749,755,834 - Bruno o il principio divino e naturale delle cose SD 760</t>
+  </si>
+  <si>
+    <t>SCHILLER FRIEDRICH SD 1033; MM 834 - Guglielmo TellVM 552</t>
+  </si>
+  <si>
+    <t>SCHOPENHAUER ARTHUR LdF 140; RI 450; MM834</t>
+  </si>
+  <si>
+    <t>SCHUMANN ROBERT AG 662-63; SD 763</t>
+  </si>
+  <si>
+    <t>SCIACCALUGA L' A 451</t>
+  </si>
+  <si>
+    <t>SENECA LUCIO ANNEO QPL 449; VM 466,535; SD 990; PLF 956</t>
+  </si>
+  <si>
+    <t>SERONI ADRIANO SD 942</t>
+  </si>
+  <si>
+    <t>SHAKESPEARE WILL!AM CdD 68 CONTROLLA</t>
+  </si>
+  <si>
+    <t>SHELLEY PERCY BYSSHE CdU 185; VlC 367; SD 970, 1II8; Te uro</t>
+  </si>
+  <si>
+    <t>[SIENKIEWICZ HENRYK] - Quo vadis SD 709</t>
+  </si>
+  <si>
+    <t>SINISGALLI LEONARDO SD ro65, ro70- 71; PLF 66</t>
+  </si>
+  <si>
+    <t>SOFOCLE MM 682</t>
+  </si>
+  <si>
+    <t>SOLMI SERGIO A 233; V]C 311; SD 765, 883; PLF 67-68</t>
+  </si>
+  <si>
+    <t>SPAGNOLETTI GIACINTO VM 625-26</t>
+  </si>
+  <si>
+    <t>SPINOZA BENEDETTO MdF 88, 92; L'A 456; QPL 307; AG 793; A 257; VM 6zo, 629, 664; SD 688, 760-61, 764, 767, n61; EP273, 1036; MM 627, 645, 657, 691, 720-21, 741, 859, 872-73, 1316-18, 1330-31, 1335, 1338, 1361, 1365 DeDeo SD 764 - Etica L'A 557; MM 627, 720, 859, 1330; I, V L'A 557 - Tractatus de intellectus emendatione MM627, 859 - Trattato Politico SD 767</t>
+  </si>
+  <si>
+    <t>STEELE RICHARD SD 892</t>
+  </si>
+  <si>
+    <t>STENDHAL, Henry Beyie QPL 307; VM 596, 640, 659; SD 718, 750-52, 938, J035, n17, 1119, n38; RI 400,573 - La Certosa di Parma SD 750; * Fabrizio de!Dongo SD 750 - Rouge et noir RI 398; 400, 573 - Souvenirs d'égotisme VM 640, 659</t>
+  </si>
+  <si>
+    <t>STUPARICH GIAN! Mdl 65; SD 745-48, 884 - Guerra del '15 SD 745</t>
+  </si>
+  <si>
+    <t>SVETONIO GAIO TRANQUILLO CdD 737; QPL 3ro; Mdl 176; VM 461, 616; SD 708, 828, ro98; EP 226, 314; MdS 919 - De vita Caesarum QPL 3ro</t>
+  </si>
+  <si>
+    <t>SYNGE JOHN MILLINGTON SD 896</t>
+  </si>
+  <si>
+    <t>TACITO PUBLIO CORNELIO QPL 3ro; VM 508, 616; SD III8; EP226, 314; RI 473 - [Agricola, III]VM508;EP 225 AnnaliQPL 3ro; SD840</t>
+  </si>
+  <si>
+    <t>TAINE HIPPOLYTE ADOLPHE MdF 7 4</t>
+  </si>
+  <si>
+    <t>TARCHETTI IGINIO UGO SD 970,972</t>
+  </si>
+  <si>
+    <t>TASSO TORQUATO CdU 187; QPL 307; SD 979, 1r2r, 1154; LdF 123; Rl 483; MM893 - La Gerusalemme Liberata MdF 67; '' Armida CdU 189; LdF 158; Clorinda CdU 191; Rinaldo MdF 67; Sofronia RD ro2r</t>
+  </si>
+  <si>
+    <t>TECCHI BONAVENTURA CdU 159, 164- 66; RD 981; MdI 65; SD 698-701, 739-47, 765, 847-50, 852-55, 884, 986, r rr3-15; GGP (435], 747, 759, 768, 778, 789-90, 799, 803-07, 818, 827-31; SA 875; P 896 - Idilli Moravi SD 847, 850, 852-54 - Il dramma del Foscolo SD 698 - Il nome sulla sabbia SD 698, 740 - Ilvento tra le case SD 698,740 - Tre storie d'amore SD 739-40 - Wackenroder SD 698, 740</t>
+  </si>
+  <si>
+    <t>TESSA DELIO VM 518</t>
+  </si>
+  <si>
+    <t>TOLSTOJ LEONE VM 596; SD 709, 922, 938, 1178; EP 338, ro40; GGP 6z5 - Guerra e pace QP 93; QPL 364; EP 338, ro40; GGP 6z5; '' Nicolenka SD 931; EP 338, ro40; Rostòpcin QP 93; QPL 364; Veresciàghin QP 93; QPL 364</t>
+  </si>
+  <si>
+    <t>TOMMASEO NICCOLÒ SD 694, 820-21, ro49; EP326</t>
+  </si>
+  <si>
+    <t>Tommaso d'Aquino, Torna, dottore angelico L'A 487; AG 865; MdI 142; SD 683, 691, 945; MM: 893; MdS 909 [&gt; Tractatus de lapide philosophico AG 865</t>
+  </si>
+  <si>
+    <t>TONELLI LUIGI SD 689-91 - Manzoni SD 689</t>
+  </si>
+  <si>
+    <t>TRECCANI ERNESTO PLF 70-7 l</t>
+  </si>
+  <si>
+    <t>TROILO GGP 788, 793 - Il positivismo e i diritti dello spirito GGP788</t>
+  </si>
+  <si>
+    <t>TURCHI NICOLA SD 87 3</t>
+  </si>
+  <si>
+    <t>UNGARETTI GIUSEPPE SD 980, 985, 1061, 1078-79, r171; SA875</t>
+  </si>
+  <si>
+    <t>VALER! DIEGO SD I062</t>
+  </si>
+  <si>
+    <t>VALÉRY PAUL SD Io61 La giovane Parca CdU 268</t>
+  </si>
+  <si>
+    <t>VALLE-INCLÀN RAMÒN MARIA DEL SD ro29-30 Los cuernos de Don Friolera SD Io29</t>
+  </si>
+  <si>
+    <t>VAN GOGH VINCENT SD 967</t>
+  </si>
+  <si>
+    <t>VANNINI GIULIO [Vanini G.] Ral I r r9</t>
+  </si>
+  <si>
+    <t>VASARI GIORGIO L'A 472; M 1187; VlC 403</t>
+  </si>
+  <si>
+    <t>VAUNOIS LOUIS LdF 128</t>
+  </si>
+  <si>
+    <t>VERDI GIUSEPPE, Lombardo Giuseppe CdU 160-61; Mdl 95; SD 860, 881, ro83-84, 1223; PLF 31, 951; EP 1057 - Aida L'A 437; CdD 701; QPL 344 - FalstaH GGP 489 - I Lombardi alla prima crociata SD 1222-23 Il Trovatore AG 855 La forza del destino SD 881, 887; '' Alvaro SD 881; Vargas SD 881 - [La traviata] * Alfredo L'A 530; Violetta L'A 529,531 - Messa da Requiem PLF 3 r, 95 r - Nabucco Mdl 61-62 - Rigoletto L'A 531, 562; '' duca di Mantova QP 155; QPL 456; Gilda L'A 326, 529, 531, 562; QP 155; QPL 456; PLF 32 - Simon Boccanegra SD 881-82</t>
+  </si>
+  <si>
+    <t>VERGA GIOVANNI SD n44; EP268 - I Malavoglia CdU 268; '' Santuzza MdF99</t>
+  </si>
+  <si>
+    <t>VERGANI ORIO Mdl 63-66; SD 813; SA 875</t>
+  </si>
+  <si>
+    <t>VERLAINE PAUL Ral 1029; VM 571- 72, 616-17; SD 709-10, ro59-60, 1062; EP 1064; RI 481, 1282; AS rr49 - Uadis et naguère] Art poétique [17J VM572 - Parallèlement, Laeti et errabundi VM 617 [5-8, 41-54, 85-88] VM 617-18 - Sagesse, 1-8 [= I, 16, vv. 21-22] VM617</t>
+  </si>
+  <si>
+    <t>VERRI [casata] SD 1222 - Alessandro SD II8o; RI'i Il - Pietro VM 462, 610; -SD 893, 230 EP 1033; MdS 914 I&gt; VM610</t>
+  </si>
+  <si>
+    <t>VESPASIANO DA BISTICCI SD 1123 - Vite degli Uomini Illustri SD 1123</t>
+  </si>
+  <si>
+    <t>VIANI LORENZO Mdl 198; SD 836, 952, r145</t>
+  </si>
+  <si>
+    <t>VICO GIAMBATTISTA Mdl 321; SD 693-97, 861; MdS 914 - Principi della Scienza Nuova SD 691-94, 696-97</t>
+  </si>
+  <si>
+    <t>VIGOLO GIORGIO VM 553, 556; SD 1063-64</t>
+  </si>
+  <si>
+    <t>VILLARI PASQUALE SD 1049 - Storia di Girolamo Savonarola e de' suoi tempi SD 1049</t>
+  </si>
+  <si>
+    <t>VIRGILIO, Vergilio, il Poeta CdU 210 L'A 438; CdD 637, 692; QPL 307 AG 741; RD 997; Mdl 149; A 229 232 VM 459-61, 469, 616; SD 718, 819, 833, 848, 909, 962, 980, IOI9, 1024, III71 1119) 1136) 1158; EP 256, 352, 371, 1031; GASP 407; GGP 671; MM 797,805 - [Bucoliche] [IV, 60-61] VM 460; [61] EP 265; MM 1360; [62] MM 885; [62-63) A 229; VlC 301; Vl\/1 460,469 - Catalepton liber 13 VM 461 - Eneide SD n58; EP 256; GGP 671,673; RI 450; [I, 119] UI 1140; [417) SD 819; [VI, 61] CdU 184; MM 652, 883; VI, 308 CdU 216; [242, 298-301, 304-08, 313-14) EP 219-20; [305-08) MM 797; VI [357) GGP 530, 655, 775, 822; VI [363) Mdl 190; [}59-60) AS II55 [VII, 757-58) QPL 396; Mdl 149; [XI, 27) MM 797; '' Camilla EP 352; Eurialo VM 461; Gìuturna, Juturna RD 997; A 241; VM 461; Niso EP 277; Palinuro CdD 637; AG 741; VM 461; EP 353; AS 1155; Turno, re vinto e ucciso A 241; RD 997 - Georgiche MM 889; III [26) L'A 438; CdD 692; [33] EP 230; GASP 407; [III, 284) AG 676</t>
+  </si>
+  <si>
+    <t>VOLTAIRE [François-Marie Arouet] VM 535, 614, 651; SD 907, 1034, 1036; LdF 169, 195, 197; GASP 424; RI 511-12; MM 732</t>
+  </si>
+  <si>
+    <t>WACKENRODER WILHELM HEINRICH CdU 164; SD 699</t>
+  </si>
+  <si>
+    <t>WAGNER RICHARD M 539; AG 624; VIC 384; SD 710, 763, 877, 1175; GGP 455,464</t>
+  </si>
+  <si>
+    <t>WHITMAN WALT VM 616; RI</t>
+  </si>
+  <si>
+    <t>\'7ILDE OSCAR AG 802; RaI 1029; SD 709,721,731 - De profundis SD 709</t>
+  </si>
+  <si>
+    <t>W!NDELBAND WILHELM SD 692 - Storia della Filosofia SD 692</t>
+  </si>
+  <si>
+    <t>YEATS WILLIAM BUTLER SD 896, 898, 967 - The Countess Cathleen SD 896</t>
+  </si>
+  <si>
+    <t>ZAPELLONI CARLO SD 966</t>
+  </si>
+  <si>
+    <t>ZELLER EDUARD RI 416</t>
+  </si>
+  <si>
+    <t>ZWEIG STEFAN VM 595-98</t>
   </si>
 </sst>
 </file>
@@ -996,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE174"/>
+  <dimension ref="A1:AE365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175"/>
+    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
+      <selection activeCell="A366" sqref="A366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1970,6 +2609,961 @@
         <v>205</v>
       </c>
     </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>395</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Corrispondenze.xlsx
+++ b/Corrispondenze.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="409" documentId="11_AD4D5CB4E552A5DACE1C641830185D485BDEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5705F4A6-8F9B-472B-ACEA-96315F7A163A}"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="132" windowWidth="11892" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-72" yWindow="288" windowWidth="10740" windowHeight="11844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -1637,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
-      <selection activeCell="A366" sqref="A366"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="A211" sqref="A211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Corrispondenze.xlsx
+++ b/Corrispondenze.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="409" documentId="11_AD4D5CB4E552A5DACE1C641830185D485BDEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5705F4A6-8F9B-472B-ACEA-96315F7A163A}"/>
   <bookViews>
-    <workbookView xWindow="-72" yWindow="288" windowWidth="10740" windowHeight="11844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="108" windowWidth="10740" windowHeight="11844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -1637,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="A211" sqref="A211"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Corrispondenze.xlsx
+++ b/Corrispondenze.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="409" documentId="11_AD4D5CB4E552A5DACE1C641830185D485BDEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5705F4A6-8F9B-472B-ACEA-96315F7A163A}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="108" windowWidth="10740" windowHeight="11844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="204" windowWidth="10908" windowHeight="11844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -1637,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="A257" sqref="A257"/>
+    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
+      <selection activeCell="A328" sqref="A328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Corrispondenze.xlsx
+++ b/Corrispondenze.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d451be126981215/Desktop/GitHub/Gadda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="412" documentId="11_AD4D5CB4E552A5DACE1C641830185D485BDEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B66578E-A512-4602-A1C4-C561ED776990}"/>
+  <xr:revisionPtr revIDLastSave="413" documentId="11_AD4D5CB4E552A5DACE1C641830185D485BDEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9524B200-617B-4CAB-B054-0114BD63F3EF}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="1116" windowWidth="11436" windowHeight="11844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10476" yWindow="396" windowWidth="11412" windowHeight="11844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
